--- a/Project Outputs for oai_kpa_mku/BOM/oai_kpa_mku.xlsx
+++ b/Project Outputs for oai_kpa_mku/BOM/oai_kpa_mku.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\YandexDisk\Work\Altium\NSU\ОАИ_КПА\oai_kpa_mku\Project Outputs for oai_kpa_mku\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DE58E947-DBE2-4B6A-A5DD-6866C47BFDDD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F4393765-46D7-4CC4-84FF-3D33DD13279D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1356" yWindow="2436" windowWidth="18804" windowHeight="13332" xr2:uid="{BAF3D753-E980-4464-90B1-15093A930506}"/>
+    <workbookView xWindow="21528" yWindow="2628" windowWidth="18216" windowHeight="12468" xr2:uid="{ECF4451A-1C34-45EF-9A83-F2EFFBB4979A}"/>
   </bookViews>
   <sheets>
     <sheet name="oai_kpa_mku" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="86">
   <si>
     <t>Designator</t>
   </si>
@@ -173,13 +173,19 @@
     <t>PVAZ172N</t>
   </si>
   <si>
-    <t>R1, R2, R3, R4, R5, R6, R7, R8, R9, R10, R11, R12, R13, R14, R15, R16, R17, R18, R19, R20, R21, R22, R23, R24, R25, R26, R27, R28, R29, R30, R31, R32, R33, R34, R35, R36, R37, R38, R39, R40, R41, R42, R43, R44, R45, R46, R47, R48, R49, R50, R51, R52, R53, R54, R55, R56, R57, R58, R59, R60, R61, R62, R63, R64, R65, R66, R67, R68, R69, R70, R71, R72, R73, R74, R75, R76, R77, R78, R79, R80, R81, R82, R83, R84, R85, R86, R87, R88, R89, R90</t>
+    <t>R60, R62, R64, R66, R68, R70, R72, R74, R76, R78, R80, R82, R84, R86, R88, R90</t>
   </si>
   <si>
     <t>SMD-резистор</t>
   </si>
   <si>
     <t>Резистор</t>
+  </si>
+  <si>
+    <t>500</t>
+  </si>
+  <si>
+    <t>R1, R2, R3, R4, R5, R6, R7, R8, R9, R10, R11, R12, R13, R14, R15, R16, R17, R18, R19, R20, R21, R22, R23, R24, R25, R26, R27, R28, R29, R30, R31, R32, R33, R34, R35, R36, R37, R38, R39, R40, R41, R42, R43, R44, R45, R46, R47, R48, R49, R50, R51, R52, R53, R54, R55, R56, R57, R58, R59, R61, R63, R65, R67, R69, R71, R73, R75, R77, R79, R81, R83, R85, R87, R89</t>
   </si>
   <si>
     <t>1к</t>
@@ -670,11 +676,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BB1B8D1-4FFB-4D44-BCA4-EBD28881A3F3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62E94F32-118C-44A6-B94C-7EE64DDE0FD3}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:E27"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -912,7 +918,7 @@
       </c>
       <c r="E15" s="4"/>
     </row>
-    <row r="16" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>45</v>
       </c>
@@ -923,70 +929,72 @@
         <v>47</v>
       </c>
       <c r="D16" s="4">
-        <v>90</v>
+        <v>16</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>49</v>
       </c>
       <c r="B17" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D17" s="4">
+        <v>74</v>
+      </c>
+      <c r="E17" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C17" s="3" t="s">
+    </row>
+    <row r="18" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="D17" s="4">
+      <c r="B18" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D18" s="4">
         <v>2</v>
       </c>
-      <c r="E17" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B18" s="3" t="s">
+      <c r="E18" s="3" t="s">
         <v>54</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="D18" s="4">
-        <v>4</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C19" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="D19" s="4">
+        <v>4</v>
+      </c>
+      <c r="E19" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="C19" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="D19" s="4">
-        <v>1</v>
-      </c>
-      <c r="E19" s="4"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B20" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="C20" s="3" t="s">
         <v>61</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>62</v>
       </c>
       <c r="D20" s="4">
         <v>1</v>
@@ -995,10 +1003,10 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B21" s="3" t="s">
         <v>63</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>61</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>64</v>
@@ -1008,47 +1016,45 @@
       </c>
       <c r="E21" s="4"/>
     </row>
-    <row r="22" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
         <v>65</v>
       </c>
       <c r="B22" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C22" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="D22" s="4">
+        <v>1</v>
+      </c>
+      <c r="E22" s="4"/>
+    </row>
+    <row r="23" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A23" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="D22" s="4">
-        <v>1</v>
-      </c>
-      <c r="E22" s="4"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="3" t="s">
+      <c r="B23" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="C23" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="C23" s="3" t="s">
-        <v>70</v>
-      </c>
       <c r="D23" s="4">
         <v>1</v>
       </c>
-      <c r="E23" s="3" t="s">
-        <v>71</v>
-      </c>
+      <c r="E23" s="4"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C24" s="3" t="s">
         <v>72</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>70</v>
       </c>
       <c r="D24" s="4">
         <v>1</v>
@@ -1062,10 +1068,10 @@
         <v>74</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D25" s="4">
         <v>1</v>
@@ -1074,43 +1080,60 @@
         <v>75</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
         <v>76</v>
       </c>
       <c r="B26" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D26" s="4">
+        <v>1</v>
+      </c>
+      <c r="E26" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="C26" s="3" t="s">
+    </row>
+    <row r="27" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A27" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="D26" s="4">
+      <c r="B27" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D27" s="4">
         <v>10</v>
       </c>
-      <c r="E26" s="3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A27" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="B27" s="3" t="s">
+      <c r="E27" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="C27" s="3" t="s">
+    </row>
+    <row r="28" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A28" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="D27" s="4">
+      <c r="B28" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D28" s="4">
         <v>39</v>
       </c>
-      <c r="E27" s="3" t="s">
-        <v>83</v>
+      <c r="E28" s="3" t="s">
+        <v>85</v>
       </c>
     </row>
   </sheetData>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.30555555555555558" right="0.30555555555555558" top="0.30555555555555558" bottom="0.30555555555555558" header="0" footer="0"/>
-  <pageSetup paperSize="9" scale="92" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="90" orientation="landscape" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Project Outputs for oai_kpa_mku/BOM/oai_kpa_mku.xlsx
+++ b/Project Outputs for oai_kpa_mku/BOM/oai_kpa_mku.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\YandexDisk\Work\Altium\NSU\ОАИ_КПА\oai_kpa_mku\Project Outputs for oai_kpa_mku\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F4393765-46D7-4CC4-84FF-3D33DD13279D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4E1EC69A-2469-4705-86DD-81F94513899F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21528" yWindow="2628" windowWidth="18216" windowHeight="12468" xr2:uid="{ECF4451A-1C34-45EF-9A83-F2EFFBB4979A}"/>
+    <workbookView xWindow="21528" yWindow="2628" windowWidth="18216" windowHeight="12468" xr2:uid="{F3D642BC-BB6A-4CEE-BD98-728BA194CF8C}"/>
   </bookViews>
   <sheets>
     <sheet name="oai_kpa_mku" sheetId="1" r:id="rId1"/>
@@ -676,7 +676,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62E94F32-118C-44A6-B94C-7EE64DDE0FD3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5402AE63-45D1-4AE5-95BA-2B403510CE23}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
